--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\python\ecoindata\countries-list\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A6803-56C3-41C8-9B15-7DD4E7D9794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C12FF16-ECB9-4125-9420-9C558902B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74412378-DA3D-4E7E-A471-F331A8EBC13E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1018">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -2332,13 +2332,760 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AFG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ALB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/DZA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ASM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AND.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AGO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AIA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ATA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ATG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ARG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ARM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ABW.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AUS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AUT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/AZE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BHS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BHR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BGD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BRB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BLR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BEL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BLZ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BEN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BMU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BTN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BOL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BES.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BIH.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BWA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BVT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BRA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IOT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BRN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BGR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BFA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BDI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CPV.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KHM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CMR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CAN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CYM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CAF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TCD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CHL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CHN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CXR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CCK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/COL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/COM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/COD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/COG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/COK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CRI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/HRV.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CUB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CUW.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CYP.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CZE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CIV.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/DNK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/DJI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/DMA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/DOM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ECU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/EGY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SLV.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GNQ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ERI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/EST.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SWZ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ETH.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/FLK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/FRO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/FJI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/FIN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/FRA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GUF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PYF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ATF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GAB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GMB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GEO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/DEU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GHA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GIB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GRC.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GRL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GRD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GLP.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GUM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GTM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GGY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GIN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GNB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GUY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/HTI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/HMD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VAT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/HND.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/HKG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/HUN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ISL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IND.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IDN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IRN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IRQ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IRL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/IMN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ISR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ITA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/JAM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/JPN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/JEY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/JOR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KAZ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KEN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KIR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PRK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KOR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KWT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KGZ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LAO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LVA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LBN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LSO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LBR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LBY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LIE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LTU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LUX.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MAC.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MDG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MWI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MYS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MDV.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MLI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MLT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MHL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MTQ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MRT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MUS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MYT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MEX.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/FSM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MDA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MCO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MNG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MNE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MSR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MAR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MOZ.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MMR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NAM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NRU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NPL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NLD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NCL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NZL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NIC.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NER.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NGA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NIU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NFK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MKD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MNP.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/NOR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/OMN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PAK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PLW.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PSE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PAN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PNG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PRY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PER.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PHL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PCN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/POL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PRT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/PRI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/QAT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ROU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/RUS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/RWA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/REU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/BLM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SHN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/KNA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LCA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/MAF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SPM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VCT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/WSM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SMR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/STP.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SAU.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SEN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SRB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SYC.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SLE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SGP.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SXM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SVK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SVN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SLB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SOM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ZAF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SGS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SSD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ESP.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/LKA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SDN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SUR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SJM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SWE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/CHE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/SYR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TWN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TJK.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TZA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/THA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TLS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TGO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TKL.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TON.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TTO.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TUN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TKM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TCA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TUV.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/TUR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/UGA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/UKR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ARE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/GBR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/UMI.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/USA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/URY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/UZB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VUT.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VEN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VNM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VGB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/VIR.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/WLF.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ESH.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/YEM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ZMB.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ZWE.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nogueira-guilherme/countries-list/master/data/images/ALA.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2351,6 +3098,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2487,10 +3242,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2525,105 +3281,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2759,6 +3425,45 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2837,10 +3542,65 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2857,15 +3617,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{601192D3-CDE9-4734-9B39-91C519B7C054}" name="Tabela1" displayName="Tabela1" ref="A1:F250" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{601192D3-CDE9-4734-9B39-91C519B7C054}" name="Tabela1" displayName="Tabela1" ref="A1:F250" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F250" xr:uid="{3B29065E-FEA1-46B5-856A-3C62D6F865EB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E97ACC84-EBF2-4B18-8C3E-69A8D3DBC0AD}" name="original" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{40A3497C-4F9E-4470-BEE5-BD1B6D2259DC}" name="country" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{6EEB5482-28B3-4CA6-BD8C-455B48E8E925}" name="link" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5D5C66D8-B50E-42C1-8F31-DC23544F6419}" name="alpha-2-code" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E926F50A-D610-46CD-9662-27317C15F7D7}" name="alpha-3-code" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D5C721D2-4966-4930-B6DC-C1720D4B3051}" name="numeric" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E97ACC84-EBF2-4B18-8C3E-69A8D3DBC0AD}" name="original" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{40A3497C-4F9E-4470-BEE5-BD1B6D2259DC}" name="country" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6EEB5482-28B3-4CA6-BD8C-455B48E8E925}" name="link" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5D5C66D8-B50E-42C1-8F31-DC23544F6419}" name="alpha-2-code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E926F50A-D610-46CD-9662-27317C15F7D7}" name="alpha-3-code" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D5C721D2-4966-4930-B6DC-C1720D4B3051}" name="numeric" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3170,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9458AA78-6AC9-4514-A2E7-9DBE499B56B1}">
   <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3207,7 +3967,9 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="12" t="s">
+        <v>769</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3225,7 +3987,9 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>770</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +4007,9 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3261,7 +4027,9 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3279,7 +4047,9 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3297,7 +4067,9 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -3315,7 +4087,9 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
@@ -3333,7 +4107,9 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>776</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3351,7 +4127,9 @@
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>777</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
@@ -3369,7 +4147,9 @@
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
@@ -3387,7 +4167,9 @@
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>779</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
@@ -3405,7 +4187,9 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +4207,9 @@
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>781</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3441,7 +4227,9 @@
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>782</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
@@ -3459,7 +4247,9 @@
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3477,7 +4267,9 @@
       <c r="B17" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>46</v>
       </c>
@@ -3495,7 +4287,9 @@
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>785</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
@@ -3513,7 +4307,9 @@
       <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>786</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
@@ -3531,7 +4327,9 @@
       <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>787</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
@@ -3549,7 +4347,9 @@
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3567,7 +4367,9 @@
       <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>789</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
@@ -3585,7 +4387,9 @@
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
@@ -3603,7 +4407,9 @@
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>791</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
@@ -3621,7 +4427,9 @@
       <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
@@ -3639,7 +4447,9 @@
       <c r="B26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>793</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
@@ -3657,7 +4467,9 @@
       <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>76</v>
       </c>
@@ -3675,7 +4487,9 @@
       <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="D28" s="4" t="s">
         <v>79</v>
       </c>
@@ -3693,7 +4507,9 @@
       <c r="B29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>82</v>
       </c>
@@ -3711,7 +4527,9 @@
       <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>797</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>85</v>
       </c>
@@ -3729,7 +4547,9 @@
       <c r="B31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>798</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>88</v>
       </c>
@@ -3747,7 +4567,9 @@
       <c r="B32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3765,7 +4587,9 @@
       <c r="B33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>94</v>
       </c>
@@ -3783,7 +4607,9 @@
       <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>801</v>
+      </c>
       <c r="D34" s="4" t="s">
         <v>97</v>
       </c>
@@ -3801,7 +4627,9 @@
       <c r="B35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>100</v>
       </c>
@@ -3819,7 +4647,9 @@
       <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>103</v>
       </c>
@@ -3837,7 +4667,9 @@
       <c r="B37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="D37" s="4" t="s">
         <v>106</v>
       </c>
@@ -3855,7 +4687,9 @@
       <c r="B38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>805</v>
+      </c>
       <c r="D38" s="4" t="s">
         <v>109</v>
       </c>
@@ -3873,7 +4707,9 @@
       <c r="B39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>806</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>112</v>
       </c>
@@ -3891,7 +4727,9 @@
       <c r="B40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="D40" s="4" t="s">
         <v>115</v>
       </c>
@@ -3909,7 +4747,9 @@
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="D41" s="4" t="s">
         <v>118</v>
       </c>
@@ -3927,7 +4767,9 @@
       <c r="B42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="D42" s="4" t="s">
         <v>121</v>
       </c>
@@ -3945,7 +4787,9 @@
       <c r="B43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="D43" s="4" t="s">
         <v>124</v>
       </c>
@@ -3963,7 +4807,9 @@
       <c r="B44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>127</v>
       </c>
@@ -3981,7 +4827,9 @@
       <c r="B45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>812</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>130</v>
       </c>
@@ -3999,7 +4847,9 @@
       <c r="B46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>133</v>
       </c>
@@ -4017,7 +4867,9 @@
       <c r="B47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>814</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>136</v>
       </c>
@@ -4035,7 +4887,9 @@
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>815</v>
+      </c>
       <c r="D48" s="4" t="s">
         <v>139</v>
       </c>
@@ -4053,7 +4907,9 @@
       <c r="B49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>816</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>142</v>
       </c>
@@ -4071,7 +4927,9 @@
       <c r="B50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>145</v>
       </c>
@@ -4089,7 +4947,9 @@
       <c r="B51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>818</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>148</v>
       </c>
@@ -4107,7 +4967,9 @@
       <c r="B52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>819</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>151</v>
       </c>
@@ -4125,7 +4987,9 @@
       <c r="B53" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>820</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>154</v>
       </c>
@@ -4143,7 +5007,9 @@
       <c r="B54" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>821</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>157</v>
       </c>
@@ -4161,7 +5027,9 @@
       <c r="B55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>160</v>
       </c>
@@ -4179,7 +5047,9 @@
       <c r="B56" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>823</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>163</v>
       </c>
@@ -4197,7 +5067,9 @@
       <c r="B57" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>824</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>166</v>
       </c>
@@ -4215,7 +5087,9 @@
       <c r="B58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>825</v>
+      </c>
       <c r="D58" s="4" t="s">
         <v>169</v>
       </c>
@@ -4233,7 +5107,9 @@
       <c r="B59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>826</v>
+      </c>
       <c r="D59" s="4" t="s">
         <v>172</v>
       </c>
@@ -4251,7 +5127,9 @@
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>827</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>175</v>
       </c>
@@ -4269,7 +5147,9 @@
       <c r="B61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>178</v>
       </c>
@@ -4287,7 +5167,9 @@
       <c r="B62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>829</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>181</v>
       </c>
@@ -4305,7 +5187,9 @@
       <c r="B63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>830</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>184</v>
       </c>
@@ -4323,7 +5207,9 @@
       <c r="B64" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>831</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>187</v>
       </c>
@@ -4341,7 +5227,9 @@
       <c r="B65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>832</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>190</v>
       </c>
@@ -4359,7 +5247,9 @@
       <c r="B66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="D66" s="4" t="s">
         <v>193</v>
       </c>
@@ -4377,7 +5267,9 @@
       <c r="B67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>834</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>196</v>
       </c>
@@ -4395,7 +5287,9 @@
       <c r="B68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>835</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>199</v>
       </c>
@@ -4413,7 +5307,9 @@
       <c r="B69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>202</v>
       </c>
@@ -4431,7 +5327,9 @@
       <c r="B70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>205</v>
       </c>
@@ -4449,7 +5347,9 @@
       <c r="B71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>838</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>208</v>
       </c>
@@ -4467,7 +5367,9 @@
       <c r="B72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>211</v>
       </c>
@@ -4485,7 +5387,9 @@
       <c r="B73" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>840</v>
+      </c>
       <c r="D73" s="4" t="s">
         <v>214</v>
       </c>
@@ -4503,7 +5407,9 @@
       <c r="B74" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>217</v>
       </c>
@@ -4521,7 +5427,9 @@
       <c r="B75" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>842</v>
+      </c>
       <c r="D75" s="4" t="s">
         <v>220</v>
       </c>
@@ -4539,7 +5447,9 @@
       <c r="B76" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>843</v>
+      </c>
       <c r="D76" s="4" t="s">
         <v>223</v>
       </c>
@@ -4557,7 +5467,9 @@
       <c r="B77" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="D77" s="4" t="s">
         <v>226</v>
       </c>
@@ -4575,7 +5487,9 @@
       <c r="B78" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="D78" s="4" t="s">
         <v>229</v>
       </c>
@@ -4593,7 +5507,9 @@
       <c r="B79" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>846</v>
+      </c>
       <c r="D79" s="4" t="s">
         <v>232</v>
       </c>
@@ -4611,7 +5527,9 @@
       <c r="B80" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>847</v>
+      </c>
       <c r="D80" s="4" t="s">
         <v>235</v>
       </c>
@@ -4629,7 +5547,9 @@
       <c r="B81" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="D81" s="4" t="s">
         <v>238</v>
       </c>
@@ -4647,7 +5567,9 @@
       <c r="B82" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>849</v>
+      </c>
       <c r="D82" s="4" t="s">
         <v>241</v>
       </c>
@@ -4665,7 +5587,9 @@
       <c r="B83" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>850</v>
+      </c>
       <c r="D83" s="4" t="s">
         <v>244</v>
       </c>
@@ -4683,7 +5607,9 @@
       <c r="B84" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>851</v>
+      </c>
       <c r="D84" s="4" t="s">
         <v>247</v>
       </c>
@@ -4701,7 +5627,9 @@
       <c r="B85" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="D85" s="4" t="s">
         <v>250</v>
       </c>
@@ -4719,7 +5647,9 @@
       <c r="B86" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>853</v>
+      </c>
       <c r="D86" s="4" t="s">
         <v>253</v>
       </c>
@@ -4737,7 +5667,9 @@
       <c r="B87" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>854</v>
+      </c>
       <c r="D87" s="4" t="s">
         <v>256</v>
       </c>
@@ -4755,7 +5687,9 @@
       <c r="B88" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>855</v>
+      </c>
       <c r="D88" s="4" t="s">
         <v>259</v>
       </c>
@@ -4773,7 +5707,9 @@
       <c r="B89" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>856</v>
+      </c>
       <c r="D89" s="4" t="s">
         <v>262</v>
       </c>
@@ -4791,7 +5727,9 @@
       <c r="B90" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>857</v>
+      </c>
       <c r="D90" s="4" t="s">
         <v>265</v>
       </c>
@@ -4809,7 +5747,9 @@
       <c r="B91" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="D91" s="4" t="s">
         <v>268</v>
       </c>
@@ -4827,7 +5767,9 @@
       <c r="B92" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>859</v>
+      </c>
       <c r="D92" s="4" t="s">
         <v>271</v>
       </c>
@@ -4845,7 +5787,9 @@
       <c r="B93" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>860</v>
+      </c>
       <c r="D93" s="4" t="s">
         <v>274</v>
       </c>
@@ -4863,7 +5807,9 @@
       <c r="B94" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>861</v>
+      </c>
       <c r="D94" s="4" t="s">
         <v>277</v>
       </c>
@@ -4881,7 +5827,9 @@
       <c r="B95" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>862</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>280</v>
       </c>
@@ -4899,7 +5847,9 @@
       <c r="B96" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>863</v>
+      </c>
       <c r="D96" s="4" t="s">
         <v>283</v>
       </c>
@@ -4917,7 +5867,9 @@
       <c r="B97" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>864</v>
+      </c>
       <c r="D97" s="4" t="s">
         <v>286</v>
       </c>
@@ -4935,7 +5887,9 @@
       <c r="B98" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>865</v>
+      </c>
       <c r="D98" s="4" t="s">
         <v>289</v>
       </c>
@@ -4953,7 +5907,9 @@
       <c r="B99" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="D99" s="4" t="s">
         <v>292</v>
       </c>
@@ -4971,7 +5927,9 @@
       <c r="B100" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>867</v>
+      </c>
       <c r="D100" s="4" t="s">
         <v>295</v>
       </c>
@@ -4989,7 +5947,9 @@
       <c r="B101" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>868</v>
+      </c>
       <c r="D101" s="4" t="s">
         <v>298</v>
       </c>
@@ -5007,7 +5967,9 @@
       <c r="B102" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>869</v>
+      </c>
       <c r="D102" s="4" t="s">
         <v>301</v>
       </c>
@@ -5025,7 +5987,9 @@
       <c r="B103" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>870</v>
+      </c>
       <c r="D103" s="4" t="s">
         <v>304</v>
       </c>
@@ -5043,7 +6007,9 @@
       <c r="B104" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>871</v>
+      </c>
       <c r="D104" s="4" t="s">
         <v>307</v>
       </c>
@@ -5061,7 +6027,9 @@
       <c r="B105" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>872</v>
+      </c>
       <c r="D105" s="4" t="s">
         <v>310</v>
       </c>
@@ -5079,7 +6047,9 @@
       <c r="B106" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>873</v>
+      </c>
       <c r="D106" s="4" t="s">
         <v>313</v>
       </c>
@@ -5097,7 +6067,9 @@
       <c r="B107" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>874</v>
+      </c>
       <c r="D107" s="4" t="s">
         <v>316</v>
       </c>
@@ -5115,7 +6087,9 @@
       <c r="B108" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>875</v>
+      </c>
       <c r="D108" s="4" t="s">
         <v>319</v>
       </c>
@@ -5133,7 +6107,9 @@
       <c r="B109" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>876</v>
+      </c>
       <c r="D109" s="4" t="s">
         <v>322</v>
       </c>
@@ -5151,7 +6127,9 @@
       <c r="B110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="D110" s="4" t="s">
         <v>325</v>
       </c>
@@ -5169,7 +6147,9 @@
       <c r="B111" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="D111" s="4" t="s">
         <v>328</v>
       </c>
@@ -5187,7 +6167,9 @@
       <c r="B112" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="D112" s="4" t="s">
         <v>331</v>
       </c>
@@ -5205,7 +6187,9 @@
       <c r="B113" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>880</v>
+      </c>
       <c r="D113" s="4" t="s">
         <v>334</v>
       </c>
@@ -5223,7 +6207,9 @@
       <c r="B114" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>881</v>
+      </c>
       <c r="D114" s="4" t="s">
         <v>337</v>
       </c>
@@ -5241,7 +6227,9 @@
       <c r="B115" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>882</v>
+      </c>
       <c r="D115" s="4" t="s">
         <v>340</v>
       </c>
@@ -5259,7 +6247,9 @@
       <c r="B116" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>883</v>
+      </c>
       <c r="D116" s="4" t="s">
         <v>343</v>
       </c>
@@ -5277,7 +6267,9 @@
       <c r="B117" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>884</v>
+      </c>
       <c r="D117" s="4" t="s">
         <v>346</v>
       </c>
@@ -5295,7 +6287,9 @@
       <c r="B118" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>885</v>
+      </c>
       <c r="D118" s="4" t="s">
         <v>349</v>
       </c>
@@ -5313,7 +6307,9 @@
       <c r="B119" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>886</v>
+      </c>
       <c r="D119" s="4" t="s">
         <v>352</v>
       </c>
@@ -5331,7 +6327,9 @@
       <c r="B120" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="D120" s="4" t="s">
         <v>355</v>
       </c>
@@ -5349,7 +6347,9 @@
       <c r="B121" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="D121" s="4" t="s">
         <v>358</v>
       </c>
@@ -5367,7 +6367,9 @@
       <c r="B122" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>889</v>
+      </c>
       <c r="D122" s="4" t="s">
         <v>361</v>
       </c>
@@ -5385,7 +6387,9 @@
       <c r="B123" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>890</v>
+      </c>
       <c r="D123" s="4" t="s">
         <v>364</v>
       </c>
@@ -5403,7 +6407,9 @@
       <c r="B124" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>891</v>
+      </c>
       <c r="D124" s="4" t="s">
         <v>367</v>
       </c>
@@ -5421,7 +6427,9 @@
       <c r="B125" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="D125" s="4" t="s">
         <v>370</v>
       </c>
@@ -5439,7 +6447,9 @@
       <c r="B126" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="D126" s="4" t="s">
         <v>373</v>
       </c>
@@ -5457,7 +6467,9 @@
       <c r="B127" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>894</v>
+      </c>
       <c r="D127" s="4" t="s">
         <v>376</v>
       </c>
@@ -5475,7 +6487,9 @@
       <c r="B128" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="D128" s="4" t="s">
         <v>379</v>
       </c>
@@ -5493,7 +6507,9 @@
       <c r="B129" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="D129" s="4" t="s">
         <v>382</v>
       </c>
@@ -5511,7 +6527,9 @@
       <c r="B130" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="D130" s="4" t="s">
         <v>385</v>
       </c>
@@ -5529,7 +6547,9 @@
       <c r="B131" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>898</v>
+      </c>
       <c r="D131" s="4" t="s">
         <v>388</v>
       </c>
@@ -5547,7 +6567,9 @@
       <c r="B132" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>899</v>
+      </c>
       <c r="D132" s="4" t="s">
         <v>391</v>
       </c>
@@ -5565,7 +6587,9 @@
       <c r="B133" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3" t="s">
+        <v>900</v>
+      </c>
       <c r="D133" s="4" t="s">
         <v>394</v>
       </c>
@@ -5583,7 +6607,9 @@
       <c r="B134" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>901</v>
+      </c>
       <c r="D134" s="4" t="s">
         <v>397</v>
       </c>
@@ -5601,7 +6627,9 @@
       <c r="B135" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>902</v>
+      </c>
       <c r="D135" s="4" t="s">
         <v>400</v>
       </c>
@@ -5619,7 +6647,9 @@
       <c r="B136" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>903</v>
+      </c>
       <c r="D136" s="4" t="s">
         <v>403</v>
       </c>
@@ -5637,7 +6667,9 @@
       <c r="B137" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>904</v>
+      </c>
       <c r="D137" s="4" t="s">
         <v>406</v>
       </c>
@@ -5655,7 +6687,9 @@
       <c r="B138" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="D138" s="4" t="s">
         <v>409</v>
       </c>
@@ -5673,7 +6707,9 @@
       <c r="B139" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>906</v>
+      </c>
       <c r="D139" s="4" t="s">
         <v>412</v>
       </c>
@@ -5691,7 +6727,9 @@
       <c r="B140" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>907</v>
+      </c>
       <c r="D140" s="4" t="s">
         <v>415</v>
       </c>
@@ -5709,7 +6747,9 @@
       <c r="B141" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="D141" s="4" t="s">
         <v>418</v>
       </c>
@@ -5727,7 +6767,9 @@
       <c r="B142" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>909</v>
+      </c>
       <c r="D142" s="4" t="s">
         <v>421</v>
       </c>
@@ -5745,7 +6787,9 @@
       <c r="B143" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>910</v>
+      </c>
       <c r="D143" s="4" t="s">
         <v>424</v>
       </c>
@@ -5763,7 +6807,9 @@
       <c r="B144" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>911</v>
+      </c>
       <c r="D144" s="4" t="s">
         <v>427</v>
       </c>
@@ -5781,7 +6827,9 @@
       <c r="B145" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>912</v>
+      </c>
       <c r="D145" s="4" t="s">
         <v>430</v>
       </c>
@@ -5799,7 +6847,9 @@
       <c r="B146" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="D146" s="4" t="s">
         <v>433</v>
       </c>
@@ -5817,7 +6867,9 @@
       <c r="B147" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>914</v>
+      </c>
       <c r="D147" s="4" t="s">
         <v>436</v>
       </c>
@@ -5835,7 +6887,9 @@
       <c r="B148" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="D148" s="4" t="s">
         <v>439</v>
       </c>
@@ -5853,7 +6907,9 @@
       <c r="B149" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>916</v>
+      </c>
       <c r="D149" s="4" t="s">
         <v>442</v>
       </c>
@@ -5871,7 +6927,9 @@
       <c r="B150" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>917</v>
+      </c>
       <c r="D150" s="4" t="s">
         <v>445</v>
       </c>
@@ -5889,7 +6947,9 @@
       <c r="B151" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>918</v>
+      </c>
       <c r="D151" s="4" t="s">
         <v>448</v>
       </c>
@@ -5907,7 +6967,9 @@
       <c r="B152" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="D152" s="4" t="s">
         <v>451</v>
       </c>
@@ -5925,7 +6987,9 @@
       <c r="B153" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="D153" s="4" t="s">
         <v>454</v>
       </c>
@@ -5943,7 +7007,9 @@
       <c r="B154" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>921</v>
+      </c>
       <c r="D154" s="4" t="s">
         <v>457</v>
       </c>
@@ -5961,7 +7027,9 @@
       <c r="B155" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="D155" s="4" t="s">
         <v>460</v>
       </c>
@@ -5979,7 +7047,9 @@
       <c r="B156" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>923</v>
+      </c>
       <c r="D156" s="4" t="s">
         <v>463</v>
       </c>
@@ -5997,7 +7067,9 @@
       <c r="B157" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>924</v>
+      </c>
       <c r="D157" s="4" t="s">
         <v>466</v>
       </c>
@@ -6015,7 +7087,9 @@
       <c r="B158" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="D158" s="4" t="s">
         <v>469</v>
       </c>
@@ -6033,7 +7107,9 @@
       <c r="B159" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="D159" s="4" t="s">
         <v>472</v>
       </c>
@@ -6051,7 +7127,9 @@
       <c r="B160" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="D160" s="4" t="s">
         <v>475</v>
       </c>
@@ -6069,7 +7147,9 @@
       <c r="B161" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="D161" s="4" t="s">
         <v>478</v>
       </c>
@@ -6087,7 +7167,9 @@
       <c r="B162" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="D162" s="4" t="s">
         <v>481</v>
       </c>
@@ -6105,7 +7187,9 @@
       <c r="B163" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="D163" s="4" t="s">
         <v>484</v>
       </c>
@@ -6123,7 +7207,9 @@
       <c r="B164" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="D164" s="4" t="s">
         <v>487</v>
       </c>
@@ -6141,7 +7227,9 @@
       <c r="B165" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="D165" s="4" t="s">
         <v>490</v>
       </c>
@@ -6159,7 +7247,9 @@
       <c r="B166" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="D166" s="4" t="s">
         <v>493</v>
       </c>
@@ -6177,7 +7267,9 @@
       <c r="B167" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="D167" s="4" t="s">
         <v>496</v>
       </c>
@@ -6195,7 +7287,9 @@
       <c r="B168" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>935</v>
+      </c>
       <c r="D168" s="4" t="s">
         <v>499</v>
       </c>
@@ -6213,7 +7307,9 @@
       <c r="B169" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>936</v>
+      </c>
       <c r="D169" s="4" t="s">
         <v>502</v>
       </c>
@@ -6231,7 +7327,9 @@
       <c r="B170" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>937</v>
+      </c>
       <c r="D170" s="4" t="s">
         <v>505</v>
       </c>
@@ -6249,7 +7347,9 @@
       <c r="B171" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="D171" s="4" t="s">
         <v>508</v>
       </c>
@@ -6267,7 +7367,9 @@
       <c r="B172" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>939</v>
+      </c>
       <c r="D172" s="4" t="s">
         <v>511</v>
       </c>
@@ -6285,7 +7387,9 @@
       <c r="B173" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="D173" s="4" t="s">
         <v>514</v>
       </c>
@@ -6303,7 +7407,9 @@
       <c r="B174" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="3" t="s">
+        <v>941</v>
+      </c>
       <c r="D174" s="4" t="s">
         <v>517</v>
       </c>
@@ -6321,7 +7427,9 @@
       <c r="B175" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>942</v>
+      </c>
       <c r="D175" s="4" t="s">
         <v>520</v>
       </c>
@@ -6339,7 +7447,9 @@
       <c r="B176" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="D176" s="4" t="s">
         <v>523</v>
       </c>
@@ -6357,7 +7467,9 @@
       <c r="B177" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="3" t="s">
+        <v>944</v>
+      </c>
       <c r="D177" s="4" t="s">
         <v>526</v>
       </c>
@@ -6375,7 +7487,9 @@
       <c r="B178" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="D178" s="4" t="s">
         <v>529</v>
       </c>
@@ -6393,7 +7507,9 @@
       <c r="B179" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="D179" s="4" t="s">
         <v>532</v>
       </c>
@@ -6411,7 +7527,9 @@
       <c r="B180" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="D180" s="4" t="s">
         <v>535</v>
       </c>
@@ -6429,7 +7547,9 @@
       <c r="B181" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="D181" s="4" t="s">
         <v>538</v>
       </c>
@@ -6447,7 +7567,9 @@
       <c r="B182" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="3" t="s">
+        <v>949</v>
+      </c>
       <c r="D182" s="4" t="s">
         <v>541</v>
       </c>
@@ -6465,7 +7587,9 @@
       <c r="B183" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="3" t="s">
+        <v>950</v>
+      </c>
       <c r="D183" s="4" t="s">
         <v>544</v>
       </c>
@@ -6483,7 +7607,9 @@
       <c r="B184" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="3" t="s">
+        <v>951</v>
+      </c>
       <c r="D184" s="4" t="s">
         <v>547</v>
       </c>
@@ -6501,7 +7627,9 @@
       <c r="B185" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3" t="s">
+        <v>952</v>
+      </c>
       <c r="D185" s="4" t="s">
         <v>550</v>
       </c>
@@ -6519,7 +7647,9 @@
       <c r="B186" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>953</v>
+      </c>
       <c r="D186" s="4" t="s">
         <v>553</v>
       </c>
@@ -6537,7 +7667,9 @@
       <c r="B187" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3" t="s">
+        <v>954</v>
+      </c>
       <c r="D187" s="4" t="s">
         <v>556</v>
       </c>
@@ -6555,7 +7687,9 @@
       <c r="B188" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3" t="s">
+        <v>955</v>
+      </c>
       <c r="D188" s="4" t="s">
         <v>559</v>
       </c>
@@ -6573,7 +7707,9 @@
       <c r="B189" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3" t="s">
+        <v>956</v>
+      </c>
       <c r="D189" s="4" t="s">
         <v>562</v>
       </c>
@@ -6591,7 +7727,9 @@
       <c r="B190" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3" t="s">
+        <v>957</v>
+      </c>
       <c r="D190" s="4" t="s">
         <v>565</v>
       </c>
@@ -6609,7 +7747,9 @@
       <c r="B191" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="D191" s="4" t="s">
         <v>568</v>
       </c>
@@ -6627,7 +7767,9 @@
       <c r="B192" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3" t="s">
+        <v>959</v>
+      </c>
       <c r="D192" s="4" t="s">
         <v>571</v>
       </c>
@@ -6645,7 +7787,9 @@
       <c r="B193" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="D193" s="4" t="s">
         <v>574</v>
       </c>
@@ -6663,7 +7807,9 @@
       <c r="B194" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="3" t="s">
+        <v>961</v>
+      </c>
       <c r="D194" s="4" t="s">
         <v>577</v>
       </c>
@@ -6681,7 +7827,9 @@
       <c r="B195" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="3" t="s">
+        <v>962</v>
+      </c>
       <c r="D195" s="4" t="s">
         <v>580</v>
       </c>
@@ -6699,7 +7847,9 @@
       <c r="B196" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="3" t="s">
+        <v>963</v>
+      </c>
       <c r="D196" s="4" t="s">
         <v>583</v>
       </c>
@@ -6717,7 +7867,9 @@
       <c r="B197" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="3" t="s">
+        <v>964</v>
+      </c>
       <c r="D197" s="4" t="s">
         <v>586</v>
       </c>
@@ -6735,7 +7887,9 @@
       <c r="B198" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="D198" s="4" t="s">
         <v>589</v>
       </c>
@@ -6753,7 +7907,9 @@
       <c r="B199" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="3" t="s">
+        <v>966</v>
+      </c>
       <c r="D199" s="4" t="s">
         <v>592</v>
       </c>
@@ -6771,7 +7927,9 @@
       <c r="B200" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>967</v>
+      </c>
       <c r="D200" s="4" t="s">
         <v>595</v>
       </c>
@@ -6789,7 +7947,9 @@
       <c r="B201" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>968</v>
+      </c>
       <c r="D201" s="4" t="s">
         <v>598</v>
       </c>
@@ -6807,7 +7967,9 @@
       <c r="B202" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="D202" s="4" t="s">
         <v>601</v>
       </c>
@@ -6825,7 +7987,9 @@
       <c r="B203" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="D203" s="4" t="s">
         <v>604</v>
       </c>
@@ -6843,7 +8007,9 @@
       <c r="B204" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="D204" s="4" t="s">
         <v>607</v>
       </c>
@@ -6861,7 +8027,9 @@
       <c r="B205" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="D205" s="4" t="s">
         <v>610</v>
       </c>
@@ -6879,7 +8047,9 @@
       <c r="B206" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="D206" s="4" t="s">
         <v>613</v>
       </c>
@@ -6897,7 +8067,9 @@
       <c r="B207" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="D207" s="4" t="s">
         <v>616</v>
       </c>
@@ -6915,7 +8087,9 @@
       <c r="B208" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>975</v>
+      </c>
       <c r="D208" s="4" t="s">
         <v>619</v>
       </c>
@@ -6933,7 +8107,9 @@
       <c r="B209" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>976</v>
+      </c>
       <c r="D209" s="4" t="s">
         <v>622</v>
       </c>
@@ -6951,7 +8127,9 @@
       <c r="B210" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>977</v>
+      </c>
       <c r="D210" s="4" t="s">
         <v>625</v>
       </c>
@@ -6969,7 +8147,9 @@
       <c r="B211" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>978</v>
+      </c>
       <c r="D211" s="4" t="s">
         <v>628</v>
       </c>
@@ -6987,7 +8167,9 @@
       <c r="B212" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>979</v>
+      </c>
       <c r="D212" s="4" t="s">
         <v>631</v>
       </c>
@@ -7005,7 +8187,9 @@
       <c r="B213" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>980</v>
+      </c>
       <c r="D213" s="4" t="s">
         <v>634</v>
       </c>
@@ -7023,7 +8207,9 @@
       <c r="B214" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>981</v>
+      </c>
       <c r="D214" s="4" t="s">
         <v>637</v>
       </c>
@@ -7041,7 +8227,9 @@
       <c r="B215" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>982</v>
+      </c>
       <c r="D215" s="4" t="s">
         <v>640</v>
       </c>
@@ -7059,7 +8247,9 @@
       <c r="B216" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="3" t="s">
+        <v>983</v>
+      </c>
       <c r="D216" s="4" t="s">
         <v>643</v>
       </c>
@@ -7077,7 +8267,9 @@
       <c r="B217" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="D217" s="4" t="s">
         <v>646</v>
       </c>
@@ -7095,7 +8287,9 @@
       <c r="B218" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C218" s="3"/>
+      <c r="C218" s="3" t="s">
+        <v>985</v>
+      </c>
       <c r="D218" s="4" t="s">
         <v>649</v>
       </c>
@@ -7113,7 +8307,9 @@
       <c r="B219" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3" t="s">
+        <v>986</v>
+      </c>
       <c r="D219" s="4" t="s">
         <v>652</v>
       </c>
@@ -7131,7 +8327,9 @@
       <c r="B220" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="3" t="s">
+        <v>987</v>
+      </c>
       <c r="D220" s="4" t="s">
         <v>655</v>
       </c>
@@ -7149,7 +8347,9 @@
       <c r="B221" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>988</v>
+      </c>
       <c r="D221" s="4" t="s">
         <v>658</v>
       </c>
@@ -7167,7 +8367,9 @@
       <c r="B222" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>989</v>
+      </c>
       <c r="D222" s="4" t="s">
         <v>661</v>
       </c>
@@ -7185,7 +8387,9 @@
       <c r="B223" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>990</v>
+      </c>
       <c r="D223" s="4" t="s">
         <v>664</v>
       </c>
@@ -7203,7 +8407,9 @@
       <c r="B224" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>991</v>
+      </c>
       <c r="D224" s="4" t="s">
         <v>667</v>
       </c>
@@ -7221,7 +8427,9 @@
       <c r="B225" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C225" s="3"/>
+      <c r="C225" s="3" t="s">
+        <v>992</v>
+      </c>
       <c r="D225" s="4" t="s">
         <v>670</v>
       </c>
@@ -7239,7 +8447,9 @@
       <c r="B226" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="3" t="s">
+        <v>993</v>
+      </c>
       <c r="D226" s="4" t="s">
         <v>673</v>
       </c>
@@ -7257,7 +8467,9 @@
       <c r="B227" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C227" s="3"/>
+      <c r="C227" s="3" t="s">
+        <v>994</v>
+      </c>
       <c r="D227" s="4" t="s">
         <v>676</v>
       </c>
@@ -7275,7 +8487,9 @@
       <c r="B228" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C228" s="3"/>
+      <c r="C228" s="3" t="s">
+        <v>995</v>
+      </c>
       <c r="D228" s="4" t="s">
         <v>679</v>
       </c>
@@ -7293,7 +8507,9 @@
       <c r="B229" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>996</v>
+      </c>
       <c r="D229" s="4" t="s">
         <v>682</v>
       </c>
@@ -7311,7 +8527,9 @@
       <c r="B230" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>997</v>
+      </c>
       <c r="D230" s="4" t="s">
         <v>685</v>
       </c>
@@ -7329,7 +8547,9 @@
       <c r="B231" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C231" s="3"/>
+      <c r="C231" s="3" t="s">
+        <v>998</v>
+      </c>
       <c r="D231" s="4" t="s">
         <v>688</v>
       </c>
@@ -7347,7 +8567,9 @@
       <c r="B232" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="C232" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="D232" s="4" t="s">
         <v>691</v>
       </c>
@@ -7365,7 +8587,9 @@
       <c r="B233" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="C233" s="3" t="s">
+        <v>1000</v>
+      </c>
       <c r="D233" s="4" t="s">
         <v>694</v>
       </c>
@@ -7383,7 +8607,9 @@
       <c r="B234" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="C234" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="D234" s="4" t="s">
         <v>697</v>
       </c>
@@ -7401,7 +8627,9 @@
       <c r="B235" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="3" t="s">
+        <v>1002</v>
+      </c>
       <c r="D235" s="4" t="s">
         <v>700</v>
       </c>
@@ -7419,7 +8647,9 @@
       <c r="B236" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C236" s="3"/>
+      <c r="C236" s="3" t="s">
+        <v>1003</v>
+      </c>
       <c r="D236" s="4" t="s">
         <v>703</v>
       </c>
@@ -7437,7 +8667,9 @@
       <c r="B237" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C237" s="3"/>
+      <c r="C237" s="3" t="s">
+        <v>1004</v>
+      </c>
       <c r="D237" s="4" t="s">
         <v>706</v>
       </c>
@@ -7455,7 +8687,9 @@
       <c r="B238" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="C238" s="3" t="s">
+        <v>1005</v>
+      </c>
       <c r="D238" s="4" t="s">
         <v>709</v>
       </c>
@@ -7473,7 +8707,9 @@
       <c r="B239" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>1006</v>
+      </c>
       <c r="D239" s="4" t="s">
         <v>712</v>
       </c>
@@ -7491,7 +8727,9 @@
       <c r="B240" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>1007</v>
+      </c>
       <c r="D240" s="4" t="s">
         <v>715</v>
       </c>
@@ -7509,7 +8747,9 @@
       <c r="B241" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>1008</v>
+      </c>
       <c r="D241" s="4" t="s">
         <v>718</v>
       </c>
@@ -7527,7 +8767,9 @@
       <c r="B242" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>1009</v>
+      </c>
       <c r="D242" s="4" t="s">
         <v>721</v>
       </c>
@@ -7545,7 +8787,9 @@
       <c r="B243" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="C243" s="3" t="s">
+        <v>1010</v>
+      </c>
       <c r="D243" s="4" t="s">
         <v>724</v>
       </c>
@@ -7563,7 +8807,9 @@
       <c r="B244" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>1011</v>
+      </c>
       <c r="D244" s="4" t="s">
         <v>727</v>
       </c>
@@ -7581,7 +8827,9 @@
       <c r="B245" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>1012</v>
+      </c>
       <c r="D245" s="4" t="s">
         <v>730</v>
       </c>
@@ -7599,7 +8847,9 @@
       <c r="B246" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C246" s="3"/>
+      <c r="C246" s="3" t="s">
+        <v>1013</v>
+      </c>
       <c r="D246" s="4" t="s">
         <v>733</v>
       </c>
@@ -7617,7 +8867,9 @@
       <c r="B247" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C247" s="3"/>
+      <c r="C247" s="3" t="s">
+        <v>1014</v>
+      </c>
       <c r="D247" s="4" t="s">
         <v>736</v>
       </c>
@@ -7635,7 +8887,9 @@
       <c r="B248" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C248" s="3"/>
+      <c r="C248" s="3" t="s">
+        <v>1015</v>
+      </c>
       <c r="D248" s="4" t="s">
         <v>739</v>
       </c>
@@ -7653,7 +8907,9 @@
       <c r="B249" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="D249" s="4" t="s">
         <v>742</v>
       </c>
@@ -7671,7 +8927,9 @@
       <c r="B250" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C250" s="6"/>
+      <c r="C250" s="6" t="s">
+        <v>1017</v>
+      </c>
       <c r="D250" s="7" t="s">
         <v>745</v>
       </c>
